--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawaryota/Desktop/github/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCBFD61-369C-7446-BBF9-AE700BB267D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2247D4D-091C-6A41-85EA-D4A6EF0067D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="氏名" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -699,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -836,7 +835,9 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5">
+        <v>45040</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -953,6 +954,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -1141,28 +1162,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,14 +1177,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
     <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawaryota/Desktop/github/2023Dev2Early/作業記録/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2247D4D-091C-6A41-85EA-D4A6EF0067D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BFACD4-4136-2E4D-96F3-8CFBE02686D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -244,6 +244,51 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">企画レビュー
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表者　中川</t>
+    <rPh sb="0" eb="3">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書作成</t>
+    <rPh sb="0" eb="7">
+      <t>ガメンセッケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書　玉川　中川　齋藤</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセッケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タマガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -698,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -832,25 +877,45 @@
       <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="68.25" customHeight="1">
       <c r="A12" s="5">
         <v>45040</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="5">
+        <v>45042</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>

--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCBFD61-369C-7446-BBF9-AE700BB267D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BFACD4-4136-2E4D-96F3-8CFBE02686D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="氏名" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -245,6 +244,51 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">企画レビュー
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表者　中川</t>
+    <rPh sb="0" eb="3">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書作成</t>
+    <rPh sb="0" eb="7">
+      <t>ガメンセッケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書　玉川　中川　齋藤</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセッケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タマガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -699,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -833,23 +877,45 @@
       <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="5">
+        <v>45040</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="5">
+        <v>45042</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
@@ -953,6 +1019,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -1141,28 +1227,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,14 +1242,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
     <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BFACD4-4136-2E4D-96F3-8CFBE02686D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94E34BA-60AF-DA4A-A754-728B5D67F6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -277,7 +277,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面設計書　玉川　中川　齋藤</t>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書　玉川　中川　齋藤
+データベース設計書　秋枝　上野</t>
     <rPh sb="0" eb="5">
       <t>ガメンセッケ</t>
     </rPh>
@@ -290,6 +302,20 @@
     <rPh sb="12" eb="14">
       <t>サイトウ</t>
     </rPh>
+    <rPh sb="21" eb="24">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アキエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書　玉川　中川　齋藤
+データベース設計書　秋枝　上野</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -743,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -905,8 +931,8 @@
       <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68.25" customHeight="1">
@@ -916,14 +942,26 @@
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="68.25" customHeight="1">
       <c r="A16" s="6"/>
@@ -1019,15 +1057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
@@ -1036,6 +1065,15 @@
     <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,14 +1266,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1244,6 +1274,14 @@
     <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
     <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
     <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94E34BA-60AF-DA4A-A754-728B5D67F6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE4E559-29F2-2C46-A796-B6EECC617A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -316,6 +316,13 @@
   <si>
     <t>画面設計書　玉川　中川　齋藤
 データベース設計書　秋枝　上野</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計レビュー</t>
+    <rPh sb="0" eb="1">
+      <t>ガメンセッケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -769,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -964,10 +971,18 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="68.25" customHeight="1">
       <c r="A17" s="6"/>
@@ -1057,26 +1072,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -1265,28 +1260,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
-    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1303,4 +1297,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
+    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE4E559-29F2-2C46-A796-B6EECC617A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEED7BA-9006-1942-99B8-41470B64C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14220" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="氏名" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -323,6 +323,57 @@
     <rPh sb="0" eb="1">
       <t>ガメンセッケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB設計</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB設計
+画面設計の修正</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンセk</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書指摘対応　全員</t>
+    <rPh sb="0" eb="1">
+      <t>ガメンセk</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース設計書　秋枝　上野
+画面設計書の修正　玉川　中川　齋藤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース設計書　秋枝　上野
+ソースコード　玉川　中川　齋藤</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -985,22 +1036,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="5">
+        <v>45048</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="5">
+        <v>45054</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="5">
+        <v>45055</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="68.25" customHeight="1">
       <c r="A20" s="6"/>
@@ -1261,15 +1336,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
@@ -1278,6 +1344,15 @@
     <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,14 +1375,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1318,4 +1385,12 @@
     <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEED7BA-9006-1942-99B8-41470B64C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2305DF7-27A4-C84D-B1F8-50848159259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14220" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -374,6 +374,23 @@
   <si>
     <t>データベース設計書　秋枝　上野
 ソースコード　玉川　中川　齋藤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計の仕上げ</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進歩チェック　中川</t>
+    <rPh sb="0" eb="2">
+      <t>シンポ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -827,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1078,10 +1095,18 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="5">
+        <v>45056</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="68.25" customHeight="1">
       <c r="A21" s="5"/>
@@ -1336,6 +1361,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
@@ -1344,15 +1378,6 @@
     <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1375,6 +1400,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1385,12 +1418,4 @@
     <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2305DF7-27A4-C84D-B1F8-50848159259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C2849-D60D-AC4A-9EA3-230A3E44C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14220" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -385,11 +385,12 @@
   </si>
   <si>
     <t>進歩チェック　中川</t>
-    <rPh sb="0" eb="2">
-      <t>シンポ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗確認</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョクカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -844,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1104,15 +1105,23 @@
       <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="68.25" customHeight="1">
+      <c r="A21" s="5">
+        <v>45057</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="68.25" customHeight="1">
       <c r="A22" s="6"/>
@@ -1172,6 +1181,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -1360,27 +1389,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
+    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1397,25 +1427,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
-    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C2849-D60D-AC4A-9EA3-230A3E44C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB503198-25D1-5A4E-851C-7433F6AD1432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14220" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -391,6 +391,20 @@
     <t>進捗確認</t>
     <rPh sb="0" eb="4">
       <t>シンチョクカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB設計レビュー</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表者　秋枝</t>
+    <rPh sb="4" eb="6">
+      <t>アキエデ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -845,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1124,10 +1138,18 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="5">
+        <v>45061</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="68.25" customHeight="1">
       <c r="A23" s="6"/>
@@ -1181,26 +1203,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -1389,28 +1391,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
-    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1427,4 +1428,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
+    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB503198-25D1-5A4E-851C-7433F6AD1432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CCE6B-8D15-CB49-AE9C-D6D064330FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14220" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="氏名" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -395,16 +395,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB設計レビュー</t>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>発表者　秋枝</t>
     <rPh sb="4" eb="6">
       <t>アキエデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計修正　全員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計の仕上げ</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド実装状況確認</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド　全員</t>
+    <rPh sb="8" eb="10">
+      <t>ゼンイn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -857,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1145,26 +1187,180 @@
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="23" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A23" s="5">
+        <v>45062</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="69" customHeight="1">
+      <c r="A24" s="5">
+        <v>45063</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="25" spans="1:6" ht="68" customHeight="1">
+      <c r="A25" s="5">
+        <v>45064</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="68" customHeight="1">
+      <c r="A26" s="5">
+        <v>45068</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="69" customHeight="1">
+      <c r="A27" s="5">
+        <v>45069</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="67" customHeight="1">
+      <c r="A28" s="5">
+        <v>45070</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="73" customHeight="1">
+      <c r="A29" s="5">
+        <v>45071</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="76" customHeight="1">
+      <c r="A30" s="5">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="79" customHeight="1">
+      <c r="A31" s="5">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="79" customHeight="1">
+      <c r="A32" s="5">
+        <v>45077</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="63" customHeight="1">
+      <c r="A33" s="5">
+        <v>45078</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="92" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1203,6 +1399,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -1391,15 +1596,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1412,6 +1608,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1430,14 +1634,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
   <ds:schemaRefs>

--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CCE6B-8D15-CB49-AE9C-D6D064330FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB21C0-7A90-7E45-949D-C3EB025737C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="氏名" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -446,6 +446,17 @@
   <si>
     <t>フロントエンド　全員</t>
     <rPh sb="8" eb="10">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンド　全員</t>
+    <rPh sb="7" eb="9">
       <t>ゼンイn</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -899,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1343,24 +1354,124 @@
       <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="92" customHeight="1">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5">
+        <v>45082</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="75" customHeight="1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>45083</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="78" customHeight="1">
+      <c r="A36" s="5">
+        <v>45084</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="75" customHeight="1">
+      <c r="A37" s="5">
+        <v>45085</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="50" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1399,12 +1510,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,20 +1710,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
+    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1635,14 +1751,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393F73E1-15E4-4CBA-936B-7A75CB01A6D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
-    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798BB3D-00A1-0F44-ACC3-EF00D5A9640A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D083D0-50F9-154A-8529-C747B9C57BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="53">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -223,6 +223,48 @@
   </si>
   <si>
     <t>ソースコード　玉川　中川　齋藤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装仕上げ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装仕上げ
+作品公開</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上げ　全員</t>
+    <rPh sb="0" eb="2">
+      <t>シアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データーベースの連携　
+仕上げ　全員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -344,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,18 +414,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -393,14 +423,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -817,10 +853,10 @@
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -837,10 +873,10 @@
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -857,10 +893,10 @@
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -880,58 +916,58 @@
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="4" hidden="1" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="10">
         <v>45036</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="1" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A17" s="14">
+      <c r="A17" s="10">
         <v>45040</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="15">
         <v>45041</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -939,21 +975,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="15">
         <v>45042</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -961,21 +997,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="15">
         <v>45043</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -983,9 +1019,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1019,10 +1055,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="68" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="15">
         <v>45054</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1033,8 +1069,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="69" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
@@ -1043,13 +1079,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="67" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="15">
         <v>45055</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -1057,21 +1093,21 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="73" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="76" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="15">
         <v>45056</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1079,9 +1115,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="79" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="8" t="s">
         <v>45</v>
       </c>
@@ -1486,10 +1522,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="76" customHeight="1">
@@ -1502,8 +1538,8 @@
       <c r="C61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>35</v>
+      <c r="D61" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="80" customHeight="1">
@@ -1516,51 +1552,95 @@
       <c r="C62" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="D62" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="81" customHeight="1">
+      <c r="A63" s="7">
+        <v>45113</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="58" customHeight="1">
+      <c r="A64" s="7">
+        <v>45118</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="80" customHeight="1">
+      <c r="A65" s="7">
+        <v>45119</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="62" customHeight="1">
+      <c r="A66" s="7">
+        <v>45120</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="79" customHeight="1">
+      <c r="A67" s="7">
+        <v>45125</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" ht="79" customHeight="1">
+      <c r="A68" s="7">
+        <v>45126</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" ht="80" customHeight="1">
+      <c r="A69" s="7">
+        <v>45127</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5"/>
@@ -1569,39 +1649,39 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4">
@@ -1791,15 +1871,17 @@
       <c r="D107" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
+  <mergeCells count="25">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
@@ -1810,22 +1892,11 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1863,26 +1934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -2071,10 +2122,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2093,20 +2175,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業記録/作業記録.xlsx
+++ b/作業記録/作業記録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamagawa2002icloud.com/Desktop/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/web/GitHub/2023Dev2Early/2023Dev2Early/作業記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D083D0-50F9-154A-8529-C747B9C57BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92384FFE-A740-4742-8B9E-AA2E4F9E0983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="氏名" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
   <si>
     <t>作業記録</t>
     <rPh sb="0" eb="2">
@@ -265,6 +265,56 @@
     <rPh sb="0" eb="1">
       <t>スイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表準備</t>
+    <rPh sb="0" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表者　玉川</t>
+    <rPh sb="0" eb="3">
+      <t>ハッピョウス</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タマガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表の準備　上野　齋藤</t>
+    <rPh sb="0" eb="1">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装仕上げ
+作品公開
+発表準備</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,16 +476,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -961,13 +1011,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>45041</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -975,21 +1025,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <v>45042</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -997,21 +1047,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <v>45043</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -1019,9 +1069,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="68.25" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1055,10 +1105,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="68" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>45054</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1069,8 +1119,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="69" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
@@ -1079,13 +1129,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="67" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="13">
         <v>45055</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -1093,21 +1143,21 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="73" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="76" customHeight="1">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <v>45056</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1115,9 +1165,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="79" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="8" t="s">
         <v>45</v>
       </c>
@@ -1619,8 +1669,12 @@
       <c r="B67" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="79" customHeight="1">
       <c r="A68" s="7">
@@ -1629,8 +1683,12 @@
       <c r="B68" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="8"/>
+      <c r="C68" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="80" customHeight="1">
       <c r="A69" s="7">
@@ -1639,49 +1697,77 @@
       <c r="B69" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="14"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="14"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="C69" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="80" customHeight="1">
+      <c r="A70" s="7">
+        <v>45131</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="79" customHeight="1">
+      <c r="A71" s="7">
+        <v>45132</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="85" customHeight="1">
+      <c r="A72" s="7">
+        <v>45133</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="14"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="14"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="14"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="14"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4">
@@ -1871,7 +1957,20 @@
       <c r="D107" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
@@ -1882,21 +1981,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1934,6 +2018,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -2122,41 +2226,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2175,9 +2248,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB345E3B-62BB-4B21-A442-E6CBCBBD612D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD63436-7838-45E4-8CC3-B11302FDCB1A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>